--- a/excel/import penawaran.xlsx
+++ b/excel/import penawaran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117AD886-2DE3-DA4A-826C-0F203687A214}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902A0B91-FA59-C745-875F-A2E517C6F45C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14060" xr2:uid="{B264C883-C65C-404D-AD50-16A2D4E1BD84}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="90">
   <si>
     <t>GCT_COMP_NO</t>
   </si>
@@ -111,9 +111,6 @@
     <t>NOTE</t>
   </si>
   <si>
-    <t>18000004530</t>
-  </si>
-  <si>
     <t>SAI</t>
   </si>
   <si>
@@ -132,42 +129,12 @@
     <t>F</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>0.6175</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>15220</t>
-  </si>
-  <si>
-    <t>1339</t>
-  </si>
-  <si>
-    <t>PEMI</t>
-  </si>
-  <si>
-    <t>IDN</t>
-  </si>
-  <si>
-    <t>DAP</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>6.8000</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -177,42 +144,9 @@
     <t>Batch uploaded</t>
   </si>
   <si>
-    <t>18000004550</t>
-  </si>
-  <si>
-    <t>14264</t>
-  </si>
-  <si>
-    <t>18001404630</t>
-  </si>
-  <si>
     <t>2018/11/15</t>
   </si>
   <si>
-    <t>1.3761</t>
-  </si>
-  <si>
-    <t>7360</t>
-  </si>
-  <si>
-    <t>28246</t>
-  </si>
-  <si>
-    <t>PT INDOWIRE PRIMA INDUSTRINDO</t>
-  </si>
-  <si>
-    <t>18005604530</t>
-  </si>
-  <si>
-    <t>0.7345</t>
-  </si>
-  <si>
-    <t>0.7140</t>
-  </si>
-  <si>
-    <t>6151</t>
-  </si>
-  <si>
     <t>13021</t>
   </si>
   <si>
@@ -225,25 +159,142 @@
     <t>CIF&amp;I</t>
   </si>
   <si>
-    <t>18005604534</t>
-  </si>
-  <si>
     <t>2018/12/04</t>
   </si>
   <si>
-    <t>17124</t>
-  </si>
-  <si>
-    <t>18005604540</t>
-  </si>
-  <si>
-    <t>6153</t>
-  </si>
-  <si>
-    <t>18005604550</t>
-  </si>
-  <si>
-    <t>56054</t>
+    <t>71893031</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>0.0400</t>
+  </si>
+  <si>
+    <t>0.0396</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>221000</t>
+  </si>
+  <si>
+    <t>1133</t>
+  </si>
+  <si>
+    <t>TAP</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>71893033</t>
+  </si>
+  <si>
+    <t>0.0468</t>
+  </si>
+  <si>
+    <t>0.0464</t>
+  </si>
+  <si>
+    <t>218713</t>
+  </si>
+  <si>
+    <t>7189303630</t>
+  </si>
+  <si>
+    <t>0.0461</t>
+  </si>
+  <si>
+    <t>0.0457</t>
+  </si>
+  <si>
+    <t>243456</t>
+  </si>
+  <si>
+    <t>71893037</t>
+  </si>
+  <si>
+    <t>0.0206</t>
+  </si>
+  <si>
+    <t>0.0204</t>
+  </si>
+  <si>
+    <t>219747</t>
+  </si>
+  <si>
+    <t>7189303740</t>
+  </si>
+  <si>
+    <t>0.0216</t>
+  </si>
+  <si>
+    <t>0.0214</t>
+  </si>
+  <si>
+    <t>226650</t>
+  </si>
+  <si>
+    <t>71893038</t>
+  </si>
+  <si>
+    <t>0.0432</t>
+  </si>
+  <si>
+    <t>0.0428</t>
+  </si>
+  <si>
+    <t>227531</t>
+  </si>
+  <si>
+    <t>71897039</t>
+  </si>
+  <si>
+    <t>0.0802</t>
+  </si>
+  <si>
+    <t>0.0780</t>
+  </si>
+  <si>
+    <t>260464</t>
+  </si>
+  <si>
+    <t>71898974</t>
+  </si>
+  <si>
+    <t>2019/04/04</t>
+  </si>
+  <si>
+    <t>0.0531</t>
+  </si>
+  <si>
+    <t>0.0528</t>
+  </si>
+  <si>
+    <t>331103</t>
+  </si>
+  <si>
+    <t>1144</t>
+  </si>
+  <si>
+    <t>YC Purchasing</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>7189897430</t>
+  </si>
+  <si>
+    <t>281119</t>
+  </si>
+  <si>
+    <t>7189897490</t>
+  </si>
+  <si>
+    <t>312913</t>
   </si>
 </sst>
 </file>
@@ -265,12 +316,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -285,12 +342,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D0551A-2F20-8F4C-8743-DC3D731B472A}">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+      <selection activeCell="A2" sqref="A2:AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,562 +762,742 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="X2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="X3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="R4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="R5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="R7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="H10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/excel/import penawaran.xlsx
+++ b/excel/import penawaran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902A0B91-FA59-C745-875F-A2E517C6F45C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D221B1-0B53-E641-BCD4-9A562C9A3F28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14060" xr2:uid="{B264C883-C65C-404D-AD50-16A2D4E1BD84}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="268">
   <si>
     <t>GCT_COMP_NO</t>
   </si>
@@ -295,6 +295,540 @@
   </si>
   <si>
     <t>312913</t>
+  </si>
+  <si>
+    <t>7189297830</t>
+  </si>
+  <si>
+    <t>0.0472</t>
+  </si>
+  <si>
+    <t>201721</t>
+  </si>
+  <si>
+    <t>7172563210</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>0.0025</t>
+  </si>
+  <si>
+    <t>287423</t>
+  </si>
+  <si>
+    <t>7173038430</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>0.3240</t>
+  </si>
+  <si>
+    <t>0.3221</t>
+  </si>
+  <si>
+    <t>150046</t>
+  </si>
+  <si>
+    <t>7173041730</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>0.0689</t>
+  </si>
+  <si>
+    <t>0.0685</t>
+  </si>
+  <si>
+    <t>68662</t>
+  </si>
+  <si>
+    <t>7173042330</t>
+  </si>
+  <si>
+    <t>0.0329</t>
+  </si>
+  <si>
+    <t>0.0320</t>
+  </si>
+  <si>
+    <t>72432</t>
+  </si>
+  <si>
+    <t>71730424</t>
+  </si>
+  <si>
+    <t>84483</t>
+  </si>
+  <si>
+    <t>71731093</t>
+  </si>
+  <si>
+    <t>2018/12/19</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>0.0559</t>
+  </si>
+  <si>
+    <t>0.0556</t>
+  </si>
+  <si>
+    <t>99420</t>
+  </si>
+  <si>
+    <t>7173169610</t>
+  </si>
+  <si>
+    <t>0.1795</t>
+  </si>
+  <si>
+    <t>0.1785</t>
+  </si>
+  <si>
+    <t>135974</t>
+  </si>
+  <si>
+    <t>71731915</t>
+  </si>
+  <si>
+    <t>940</t>
+  </si>
+  <si>
+    <t>1.1635</t>
+  </si>
+  <si>
+    <t>1.1310</t>
+  </si>
+  <si>
+    <t>154306</t>
+  </si>
+  <si>
+    <t>71731916</t>
+  </si>
+  <si>
+    <t>0.2243</t>
+  </si>
+  <si>
+    <t>0.2180</t>
+  </si>
+  <si>
+    <t>154305</t>
+  </si>
+  <si>
+    <t>71731919</t>
+  </si>
+  <si>
+    <t>141911</t>
+  </si>
+  <si>
+    <t>7803</t>
+  </si>
+  <si>
+    <t>PASI</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>DAP</t>
+  </si>
+  <si>
+    <t>71732328</t>
+  </si>
+  <si>
+    <t>2018/11/14</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>0.7361</t>
+  </si>
+  <si>
+    <t>0.7087</t>
+  </si>
+  <si>
+    <t>174092</t>
+  </si>
+  <si>
+    <t>9001</t>
+  </si>
+  <si>
+    <t>Daiwa Kasei (Thailand) Co. Ltd</t>
+  </si>
+  <si>
+    <t>71732329</t>
+  </si>
+  <si>
+    <t>0.1616</t>
+  </si>
+  <si>
+    <t>0.1556</t>
+  </si>
+  <si>
+    <t>174660</t>
+  </si>
+  <si>
+    <t>71732330</t>
+  </si>
+  <si>
+    <t>174091</t>
+  </si>
+  <si>
+    <t>71732331</t>
+  </si>
+  <si>
+    <t>174661</t>
+  </si>
+  <si>
+    <t>7173237330</t>
+  </si>
+  <si>
+    <t>0.0819</t>
+  </si>
+  <si>
+    <t>0.0814</t>
+  </si>
+  <si>
+    <t>175906</t>
+  </si>
+  <si>
+    <t>7173237430</t>
+  </si>
+  <si>
+    <t>0.0726</t>
+  </si>
+  <si>
+    <t>0.0722</t>
+  </si>
+  <si>
+    <t>175907</t>
+  </si>
+  <si>
+    <t>7173246430</t>
+  </si>
+  <si>
+    <t>0.3408</t>
+  </si>
+  <si>
+    <t>183464</t>
+  </si>
+  <si>
+    <t>71732669</t>
+  </si>
+  <si>
+    <t>0.0582</t>
+  </si>
+  <si>
+    <t>194204</t>
+  </si>
+  <si>
+    <t>7173277330</t>
+  </si>
+  <si>
+    <t>0.6277</t>
+  </si>
+  <si>
+    <t>206056</t>
+  </si>
+  <si>
+    <t>7173280230</t>
+  </si>
+  <si>
+    <t>0.0505</t>
+  </si>
+  <si>
+    <t>211206</t>
+  </si>
+  <si>
+    <t>71732862</t>
+  </si>
+  <si>
+    <t>0.0878</t>
+  </si>
+  <si>
+    <t>0.0873</t>
+  </si>
+  <si>
+    <t>206658</t>
+  </si>
+  <si>
+    <t>7173294630</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>0.2134</t>
+  </si>
+  <si>
+    <t>0.2122</t>
+  </si>
+  <si>
+    <t>210908</t>
+  </si>
+  <si>
+    <t>7173294730</t>
+  </si>
+  <si>
+    <t>0.0817</t>
+  </si>
+  <si>
+    <t>0.0812</t>
+  </si>
+  <si>
+    <t>218548</t>
+  </si>
+  <si>
+    <t>7173294840</t>
+  </si>
+  <si>
+    <t>222364</t>
+  </si>
+  <si>
+    <t>7173301630</t>
+  </si>
+  <si>
+    <t>0.2570</t>
+  </si>
+  <si>
+    <t>220757</t>
+  </si>
+  <si>
+    <t>7173301830</t>
+  </si>
+  <si>
+    <t>220758</t>
+  </si>
+  <si>
+    <t>71733023</t>
+  </si>
+  <si>
+    <t>0.8460</t>
+  </si>
+  <si>
+    <t>0.8145</t>
+  </si>
+  <si>
+    <t>231461</t>
+  </si>
+  <si>
+    <t>71733024</t>
+  </si>
+  <si>
+    <t>231459</t>
+  </si>
+  <si>
+    <t>7173303230</t>
+  </si>
+  <si>
+    <t>0.7248</t>
+  </si>
+  <si>
+    <t>0.6978</t>
+  </si>
+  <si>
+    <t>230102</t>
+  </si>
+  <si>
+    <t>7173303340</t>
+  </si>
+  <si>
+    <t>0.2009</t>
+  </si>
+  <si>
+    <t>0.1934</t>
+  </si>
+  <si>
+    <t>230100</t>
+  </si>
+  <si>
+    <t>7173303430</t>
+  </si>
+  <si>
+    <t>230103</t>
+  </si>
+  <si>
+    <t>7173303540</t>
+  </si>
+  <si>
+    <t>230101</t>
+  </si>
+  <si>
+    <t>71733055</t>
+  </si>
+  <si>
+    <t>0.0442</t>
+  </si>
+  <si>
+    <t>0.0430</t>
+  </si>
+  <si>
+    <t>222304</t>
+  </si>
+  <si>
+    <t>7173322510</t>
+  </si>
+  <si>
+    <t>0.1896</t>
+  </si>
+  <si>
+    <t>0.1878</t>
+  </si>
+  <si>
+    <t>267161</t>
+  </si>
+  <si>
+    <t>7173329140</t>
+  </si>
+  <si>
+    <t>0.0454</t>
+  </si>
+  <si>
+    <t>0.0450</t>
+  </si>
+  <si>
+    <t>266146</t>
+  </si>
+  <si>
+    <t>7173339630</t>
+  </si>
+  <si>
+    <t>0.4480</t>
+  </si>
+  <si>
+    <t>271294</t>
+  </si>
+  <si>
+    <t>7173339830</t>
+  </si>
+  <si>
+    <t>0.4479</t>
+  </si>
+  <si>
+    <t>271296</t>
+  </si>
+  <si>
+    <t>7173340330</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>0.5386</t>
+  </si>
+  <si>
+    <t>275146</t>
+  </si>
+  <si>
+    <t>7173340430</t>
+  </si>
+  <si>
+    <t>275144</t>
+  </si>
+  <si>
+    <t>71733507</t>
+  </si>
+  <si>
+    <t>0.2509</t>
+  </si>
+  <si>
+    <t>268084</t>
+  </si>
+  <si>
+    <t>71733510</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>1.0220</t>
+  </si>
+  <si>
+    <t>1.0161</t>
+  </si>
+  <si>
+    <t>264491</t>
+  </si>
+  <si>
+    <t>7173351730</t>
+  </si>
+  <si>
+    <t>0.3950</t>
+  </si>
+  <si>
+    <t>0.3840</t>
+  </si>
+  <si>
+    <t>263614</t>
+  </si>
+  <si>
+    <t>7173383730</t>
+  </si>
+  <si>
+    <t>0.1841</t>
+  </si>
+  <si>
+    <t>0.1790</t>
+  </si>
+  <si>
+    <t>288878</t>
+  </si>
+  <si>
+    <t>7173383930</t>
+  </si>
+  <si>
+    <t>288879</t>
+  </si>
+  <si>
+    <t>71734770</t>
+  </si>
+  <si>
+    <t>0.3684</t>
+  </si>
+  <si>
+    <t>0.3547</t>
+  </si>
+  <si>
+    <t>326168</t>
+  </si>
+  <si>
+    <t>7173479730</t>
+  </si>
+  <si>
+    <t>2019/01/08</t>
+  </si>
+  <si>
+    <t>0.1550</t>
+  </si>
+  <si>
+    <t>0.1460</t>
+  </si>
+  <si>
+    <t>331467</t>
+  </si>
+  <si>
+    <t>9108</t>
+  </si>
+  <si>
+    <t>YAZAKI (CHINA) INVESTMENT CORPORATION</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>7173479930</t>
+  </si>
+  <si>
+    <t>331465</t>
   </si>
 </sst>
 </file>
@@ -663,14 +1197,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D0551A-2F20-8F4C-8743-DC3D731B472A}">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AB11"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:AB68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1500,6 +2035,4224 @@
         <v>38</v>
       </c>
     </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R56" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R61" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S61" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X61" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
+      <c r="AB61" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R63" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S63" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R64" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X64" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R65" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X65" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="R67" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X67" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/import penawaran.xlsx
+++ b/excel/import penawaran.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2BD517-99A9-1548-A55F-8A35CBBC55C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65940DE4-4BE0-394A-A79E-C89B3003FC7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{B264C883-C65C-404D-AD50-16A2D4E1BD84}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" xr2:uid="{B264C883-C65C-404D-AD50-16A2D4E1BD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="159">
   <si>
     <t>GCT_COMP_NO</t>
   </si>
@@ -466,22 +466,50 @@
   </si>
   <si>
     <t>206056</t>
+  </si>
+  <si>
+    <t>Molex Singapore</t>
+  </si>
+  <si>
+    <t>Hellermann Tyton</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>0.11972</t>
+  </si>
+  <si>
+    <t>217908</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>0.17667</t>
+  </si>
+  <si>
+    <t>229760</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>0.23362</t>
+  </si>
+  <si>
+    <t>241612</t>
+  </si>
+  <si>
+    <t>7173278330</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -494,17 +522,30 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="High Tower Text"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Cilibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cilibri"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Cilibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Cilibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -542,23 +583,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,2049 +921,2190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D0551A-2F20-8F4C-8743-DC3D731B472A}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC20:AC24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC19" sqref="A16:AC19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="10.83203125" style="5"/>
-    <col min="16" max="16" width="26.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="27" width="10.83203125" style="5"/>
-    <col min="28" max="28" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="10.83203125" style="2"/>
+    <col min="16" max="16" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="27" width="10.83203125" style="2"/>
+    <col min="28" max="28" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:29">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:29">
+      <c r="A2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3" t="s">
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3" t="s">
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:29">
+      <c r="A3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC10" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="3" customFormat="1">
+      <c r="A12" s="9">
+        <v>7173041730</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3" t="s">
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3" t="s">
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC12" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="3" customFormat="1">
+      <c r="A13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="3" customFormat="1">
+      <c r="A14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" s="3" customFormat="1">
+      <c r="A15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="3" customFormat="1">
+      <c r="A16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC16" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="3" customFormat="1">
+      <c r="A17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC17" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="3" customFormat="1">
+      <c r="A18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC18" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="3" customFormat="1">
+      <c r="A19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC19" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="3" customFormat="1">
+      <c r="A20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC20" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="21" spans="1:29" s="3" customFormat="1">
+      <c r="A21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC21" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" s="3" customFormat="1">
+      <c r="A22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC22" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" s="3" customFormat="1">
+      <c r="A23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="H23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" s="3" t="s">
+      <c r="N23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3" t="s">
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3" t="s">
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AC23" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="24" spans="1:29" s="3" customFormat="1">
+      <c r="A24" s="9">
+        <v>7173041730</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="3" t="s">
+      <c r="H24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R5" s="3" t="s">
+      <c r="N24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3" t="s">
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3" t="s">
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AC5" s="4" t="s">
+      <c r="AC24" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="25" spans="1:29" s="3" customFormat="1">
+      <c r="A25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="H25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R6" s="3" t="s">
+      <c r="N25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3" t="s">
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="X25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3" t="s">
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AC25" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="26" spans="1:29">
+      <c r="A26" s="9">
+        <v>7173041731</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="H26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7" s="3" t="s">
+      <c r="N26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3" t="s">
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="X26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3" t="s">
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AC7" s="4" t="s">
+      <c r="AC26" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="27" spans="1:29">
+      <c r="A27" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="3" t="s">
+      <c r="H27" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="3" t="s">
+      <c r="N27" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3" t="s">
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="X27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3" t="s">
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AC8" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="AC27" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" s="9">
+        <v>7173041752</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="3" t="s">
+      <c r="H28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R9" s="3" t="s">
+      <c r="N28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3" t="s">
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="X28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3" t="s">
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AC9" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>7173041730</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC12" s="4" t="s">
+      <c r="AC28" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC20" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC21" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC22" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC23" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>7173041730</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC24" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC25" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2947,7 +3134,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2977,7 +3164,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3007,7 +3194,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3037,7 +3224,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3067,7 +3254,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3097,7 +3284,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3127,7 +3314,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3157,7 +3344,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3187,7 +3374,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3217,7 +3404,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3247,7 +3434,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3277,7 +3464,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3307,7 +3494,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3337,7 +3524,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3367,7 +3554,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3397,7 +3584,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3427,7 +3614,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3457,7 +3644,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3487,7 +3674,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3517,7 +3704,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3547,7 +3734,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3577,7 +3764,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3607,7 +3794,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3637,7 +3824,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3667,7 +3854,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3697,7 +3884,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3727,7 +3914,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3757,7 +3944,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3787,7 +3974,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3817,7 +4004,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3847,7 +4034,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3877,7 +4064,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3907,7 +4094,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3937,7 +4124,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3967,7 +4154,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3997,7 +4184,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4027,7 +4214,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4057,7 +4244,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4087,7 +4274,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>

--- a/excel/import penawaran.xlsx
+++ b/excel/import penawaran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65940DE4-4BE0-394A-A79E-C89B3003FC7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DB77A7-2AB6-184A-9611-A57612383C28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" xr2:uid="{B264C883-C65C-404D-AD50-16A2D4E1BD84}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="170">
   <si>
     <t>GCT_COMP_NO</t>
   </si>
@@ -502,13 +502,46 @@
   </si>
   <si>
     <t>7173278330</t>
+  </si>
+  <si>
+    <t>7173294840</t>
+  </si>
+  <si>
+    <t>9999/12/32</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>0.23363</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>HIB</t>
+  </si>
+  <si>
+    <t>2018/11/17</t>
+  </si>
+  <si>
+    <t>9999/12/33</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>0.23364</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -547,6 +580,11 @@
       <sz val="12"/>
       <name val="Cilibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -556,7 +594,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -579,11 +617,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -605,6 +674,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D0551A-2F20-8F4C-8743-DC3D731B472A}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC19" sqref="A16:AC19"/>
+    <sheetView tabSelected="1" topLeftCell="R14" workbookViewId="0">
+      <selection activeCell="AC31" sqref="AC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3105,64 +3179,158 @@
       </c>
     </row>
     <row r="29" spans="1:29">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
+      <c r="A29" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC29" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="30" spans="1:29">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
+      <c r="A30" s="12">
+        <v>7173038430</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC30" s="13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="1"/>

--- a/excel/import penawaran.xlsx
+++ b/excel/import penawaran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DB77A7-2AB6-184A-9611-A57612383C28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D9D7D6-A629-3C45-B286-5830FFE60FD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" xr2:uid="{B264C883-C65C-404D-AD50-16A2D4E1BD84}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="172">
   <si>
     <t>GCT_COMP_NO</t>
   </si>
@@ -535,13 +535,19 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>TAP-AW</t>
+  </si>
+  <si>
+    <t>pasi1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -585,6 +591,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -594,7 +612,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -629,15 +647,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -649,10 +658,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -675,13 +685,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9DF4EF69-ED03-FC42-A933-D10CBAC30FEB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -995,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D0551A-2F20-8F4C-8743-DC3D731B472A}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R14" workbookViewId="0">
-      <selection activeCell="AC31" sqref="AC31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2531,8 +2543,8 @@
       <c r="O20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
+      <c r="P20" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>47</v>
@@ -3256,8 +3268,8 @@
       </c>
     </row>
     <row r="30" spans="1:29">
-      <c r="A30" s="12">
-        <v>7173038430</v>
+      <c r="A30" s="14">
+        <v>71546334</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>28</v>
@@ -3301,8 +3313,8 @@
       <c r="O30" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>164</v>
+      <c r="P30" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>113</v>
@@ -3328,7 +3340,7 @@
       <c r="AB30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AC30" s="13" t="s">
+      <c r="AC30" s="12" t="s">
         <v>60</v>
       </c>
     </row>

--- a/excel/import penawaran.xlsx
+++ b/excel/import penawaran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D9D7D6-A629-3C45-B286-5830FFE60FD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8D45F8-AFC8-A942-B5B6-97C274CD4AF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" xr2:uid="{B264C883-C65C-404D-AD50-16A2D4E1BD84}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="318">
   <si>
     <t>GCT_COMP_NO</t>
   </si>
@@ -540,7 +540,445 @@
     <t>TAP-AW</t>
   </si>
   <si>
-    <t>pasi1</t>
+    <t>2018/11/18</t>
+  </si>
+  <si>
+    <t>9999/12/34</t>
+  </si>
+  <si>
+    <t>9999/12/35</t>
+  </si>
+  <si>
+    <t>9999/12/36</t>
+  </si>
+  <si>
+    <t>9999/12/37</t>
+  </si>
+  <si>
+    <t>9999/12/38</t>
+  </si>
+  <si>
+    <t>9999/12/39</t>
+  </si>
+  <si>
+    <t>9999/12/40</t>
+  </si>
+  <si>
+    <t>9999/12/41</t>
+  </si>
+  <si>
+    <t>9999/12/42</t>
+  </si>
+  <si>
+    <t>9999/12/43</t>
+  </si>
+  <si>
+    <t>9999/12/44</t>
+  </si>
+  <si>
+    <t>9999/12/45</t>
+  </si>
+  <si>
+    <t>9999/12/46</t>
+  </si>
+  <si>
+    <t>9999/12/47</t>
+  </si>
+  <si>
+    <t>9999/12/48</t>
+  </si>
+  <si>
+    <t>9999/12/49</t>
+  </si>
+  <si>
+    <t>9999/12/50</t>
+  </si>
+  <si>
+    <t>9999/12/51</t>
+  </si>
+  <si>
+    <t>9999/12/52</t>
+  </si>
+  <si>
+    <t>9999/12/53</t>
+  </si>
+  <si>
+    <t>9999/12/54</t>
+  </si>
+  <si>
+    <t>9999/12/55</t>
+  </si>
+  <si>
+    <t>9999/12/56</t>
+  </si>
+  <si>
+    <t>9999/12/57</t>
+  </si>
+  <si>
+    <t>2018/11/19</t>
+  </si>
+  <si>
+    <t>2018/11/20</t>
+  </si>
+  <si>
+    <t>2018/11/21</t>
+  </si>
+  <si>
+    <t>2018/11/22</t>
+  </si>
+  <si>
+    <t>2018/11/23</t>
+  </si>
+  <si>
+    <t>2018/11/24</t>
+  </si>
+  <si>
+    <t>2018/11/25</t>
+  </si>
+  <si>
+    <t>2018/11/26</t>
+  </si>
+  <si>
+    <t>2018/11/27</t>
+  </si>
+  <si>
+    <t>2018/11/28</t>
+  </si>
+  <si>
+    <t>2018/11/29</t>
+  </si>
+  <si>
+    <t>2018/11/30</t>
+  </si>
+  <si>
+    <t>2018/11/31</t>
+  </si>
+  <si>
+    <t>2018/11/32</t>
+  </si>
+  <si>
+    <t>2018/11/33</t>
+  </si>
+  <si>
+    <t>2018/11/34</t>
+  </si>
+  <si>
+    <t>2018/11/35</t>
+  </si>
+  <si>
+    <t>2018/11/36</t>
+  </si>
+  <si>
+    <t>2018/11/37</t>
+  </si>
+  <si>
+    <t>2018/11/38</t>
+  </si>
+  <si>
+    <t>2018/11/39</t>
+  </si>
+  <si>
+    <t>2018/11/40</t>
+  </si>
+  <si>
+    <t>2018/11/41</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>1.1636</t>
+  </si>
+  <si>
+    <t>0.2244</t>
+  </si>
+  <si>
+    <t>1.1637</t>
+  </si>
+  <si>
+    <t>0.2245</t>
+  </si>
+  <si>
+    <t>1.1638</t>
+  </si>
+  <si>
+    <t>0.2246</t>
+  </si>
+  <si>
+    <t>1.1639</t>
+  </si>
+  <si>
+    <t>0.23365</t>
+  </si>
+  <si>
+    <t>0.23366</t>
+  </si>
+  <si>
+    <t>0.23367</t>
+  </si>
+  <si>
+    <t>0.23368</t>
+  </si>
+  <si>
+    <t>0.23369</t>
+  </si>
+  <si>
+    <t>0.23370</t>
+  </si>
+  <si>
+    <t>0.23371</t>
+  </si>
+  <si>
+    <t>0.23372</t>
+  </si>
+  <si>
+    <t>0.23373</t>
+  </si>
+  <si>
+    <t>0.23374</t>
+  </si>
+  <si>
+    <t>0.23375</t>
+  </si>
+  <si>
+    <t>0.23376</t>
+  </si>
+  <si>
+    <t>0.23377</t>
+  </si>
+  <si>
+    <t>0.23378</t>
+  </si>
+  <si>
+    <t>0.23379</t>
+  </si>
+  <si>
+    <t>0.23380</t>
+  </si>
+  <si>
+    <t>0.23381</t>
+  </si>
+  <si>
+    <t>0.23382</t>
+  </si>
+  <si>
+    <t>0.23383</t>
+  </si>
+  <si>
+    <t>0.23384</t>
+  </si>
+  <si>
+    <t>0.23385</t>
+  </si>
+  <si>
+    <t>0.23386</t>
+  </si>
+  <si>
+    <t>0.23387</t>
+  </si>
+  <si>
+    <t>0.23388</t>
+  </si>
+  <si>
+    <t>206273</t>
+  </si>
+  <si>
+    <t>238454</t>
+  </si>
+  <si>
+    <t>244770</t>
+  </si>
+  <si>
+    <t>247928</t>
+  </si>
+  <si>
+    <t>251086</t>
+  </si>
+  <si>
+    <t>254244</t>
+  </si>
+  <si>
+    <t>257402</t>
+  </si>
+  <si>
+    <t>260560</t>
+  </si>
+  <si>
+    <t>263718</t>
+  </si>
+  <si>
+    <t>266876</t>
+  </si>
+  <si>
+    <t>270034</t>
+  </si>
+  <si>
+    <t>7804</t>
+  </si>
+  <si>
+    <t>7805</t>
+  </si>
+  <si>
+    <t>7806</t>
+  </si>
+  <si>
+    <t>7807</t>
+  </si>
+  <si>
+    <t>7808</t>
+  </si>
+  <si>
+    <t>7809</t>
+  </si>
+  <si>
+    <t>7810</t>
+  </si>
+  <si>
+    <t>7811</t>
+  </si>
+  <si>
+    <t>7812</t>
+  </si>
+  <si>
+    <t>7813</t>
+  </si>
+  <si>
+    <t>7814</t>
+  </si>
+  <si>
+    <t>7815</t>
+  </si>
+  <si>
+    <t>7816</t>
+  </si>
+  <si>
+    <t>7817</t>
+  </si>
+  <si>
+    <t>7818</t>
+  </si>
+  <si>
+    <t>7819</t>
+  </si>
+  <si>
+    <t>7820</t>
+  </si>
+  <si>
+    <t>7821</t>
+  </si>
+  <si>
+    <t>7822</t>
+  </si>
+  <si>
+    <t>7823</t>
+  </si>
+  <si>
+    <t>7824</t>
+  </si>
+  <si>
+    <t>7825</t>
+  </si>
+  <si>
+    <t>7826</t>
+  </si>
+  <si>
+    <t>7827</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>988</t>
+  </si>
+  <si>
+    <t>dec 2018 - May 2019</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>PT INDOWIRE PRIMA INDUSTRINDO</t>
+  </si>
+  <si>
+    <t>PT Nitto Materials Indonesia</t>
+  </si>
+  <si>
+    <t>SAMI</t>
+  </si>
+  <si>
+    <t>Sugity PT.SUGITY CREATEIVES</t>
+  </si>
+  <si>
+    <t>TAP</t>
+  </si>
+  <si>
+    <t>TBD Supplier</t>
+  </si>
+  <si>
+    <t>Tesa Tape Asia Pacific Pte Ltd</t>
+  </si>
+  <si>
+    <t>YAZAKI (CHINA) INVESTMENT CORPORATION</t>
+  </si>
+  <si>
+    <t>YEL-BL</t>
+  </si>
+  <si>
+    <t>Elcom</t>
+  </si>
+  <si>
+    <t>HZY</t>
   </si>
 </sst>
 </file>
@@ -604,15 +1042,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -657,19 +1107,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,6 +1150,37 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,15 +1498,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D0551A-2F20-8F4C-8743-DC3D731B472A}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="15" width="10.83203125" style="2"/>
-    <col min="16" max="16" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.33203125" style="24" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="10.83203125" style="2"/>
     <col min="28" max="28" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="18.5" style="2" bestFit="1" customWidth="1"/>
@@ -1023,3048 +1514,4176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7" t="s">
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7" t="s">
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="J3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="L3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7" t="s">
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7" t="s">
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AC3" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="J4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="L4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7" t="s">
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7" t="s">
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AC4" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="J5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="7" t="s">
+      <c r="L5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7" t="s">
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="X5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7" t="s">
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC5" s="8" t="s">
+      <c r="AC5" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="J6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="L6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7" t="s">
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="7" t="s">
+      <c r="X6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7" t="s">
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC6" s="8" t="s">
+      <c r="AC6" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="J7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="7" t="s">
+      <c r="L7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7" t="s">
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7" t="s">
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC7" s="8" t="s">
+      <c r="AC7" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="J8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="7" t="s">
+      <c r="L8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="S8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7" t="s">
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X8" s="7" t="s">
+      <c r="X8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7" t="s">
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC8" s="8" t="s">
+      <c r="AC8" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="7" t="s">
+      <c r="J9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="7" t="s">
+      <c r="L9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="S9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7" t="s">
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X9" s="7" t="s">
+      <c r="X9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7" t="s">
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC9" s="8" t="s">
+      <c r="AC9" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="J10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="7" t="s">
+      <c r="L10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7" t="s">
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X10" s="7" t="s">
+      <c r="X10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7" t="s">
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC10" s="8" t="s">
+      <c r="AC10" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="J11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="7" t="s">
+      <c r="L11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="S11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7" t="s">
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X11" s="7" t="s">
+      <c r="X11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7" t="s">
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC11" s="8" t="s">
+      <c r="AC11" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:29" s="3" customFormat="1">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>7173041730</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="J12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="7" t="s">
+      <c r="L12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="R12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S12" s="7" t="s">
+      <c r="S12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7" t="s">
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X12" s="7" t="s">
+      <c r="X12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7" t="s">
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC12" s="8" t="s">
+      <c r="AC12" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:29" s="3" customFormat="1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="J13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="7" t="s">
+      <c r="L13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="S13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7" t="s">
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X13" s="7" t="s">
+      <c r="X13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7" t="s">
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC13" s="8" t="s">
+      <c r="AC13" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:29" s="3" customFormat="1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="J14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="7" t="s">
+      <c r="L14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="R14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S14" s="7" t="s">
+      <c r="S14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7" t="s">
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X14" s="7" t="s">
+      <c r="X14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7" t="s">
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC14" s="8" t="s">
+      <c r="AC14" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:29" s="3" customFormat="1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="7" t="s">
+      <c r="J15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="7" t="s">
+      <c r="L15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="R15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="S15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7" t="s">
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X15" s="7" t="s">
+      <c r="X15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7" t="s">
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC15" s="8" t="s">
+      <c r="AC15" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="3" customFormat="1">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="J16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="7" t="s">
+      <c r="L16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="P16" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="R16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S16" s="7" t="s">
+      <c r="S16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7" t="s">
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X16" s="7" t="s">
+      <c r="X16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7" t="s">
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC16" s="8" t="s">
+      <c r="AC16" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="3" customFormat="1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="J17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="7" t="s">
+      <c r="L17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="Q17" s="7" t="s">
+      <c r="Q17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="R17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S17" s="7" t="s">
+      <c r="S17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7" t="s">
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X17" s="7" t="s">
+      <c r="X17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7" t="s">
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC17" s="8" t="s">
+      <c r="AC17" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:29" s="3" customFormat="1">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="J18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="7" t="s">
+      <c r="L18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P18" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="Q18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="R18" s="7" t="s">
+      <c r="R18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S18" s="7" t="s">
+      <c r="S18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7" t="s">
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X18" s="7" t="s">
+      <c r="X18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7" t="s">
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC18" s="8" t="s">
+      <c r="AC18" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:29" s="3" customFormat="1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="J19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="7" t="s">
+      <c r="L19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="P19" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="Q19" s="7" t="s">
+      <c r="Q19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S19" s="7" t="s">
+      <c r="S19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7" t="s">
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X19" s="7" t="s">
+      <c r="X19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7" t="s">
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC19" s="8" t="s">
+      <c r="AC19" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:29" s="3" customFormat="1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="J20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="7" t="s">
+      <c r="L20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="P20" s="13" t="s">
+      <c r="P20" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="Q20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="R20" s="7" t="s">
+      <c r="R20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S20" s="7" t="s">
+      <c r="S20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7" t="s">
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X20" s="7" t="s">
+      <c r="X20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7" t="s">
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC20" s="8" t="s">
+      <c r="AC20" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:29" s="3" customFormat="1">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="7" t="s">
+      <c r="J21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M21" s="7" t="s">
+      <c r="L21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="P21" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="Q21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="R21" s="7" t="s">
+      <c r="R21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S21" s="7" t="s">
+      <c r="S21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7" t="s">
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X21" s="7" t="s">
+      <c r="X21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7" t="s">
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC21" s="8" t="s">
+      <c r="AC21" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:29" s="3" customFormat="1">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="J22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="7" t="s">
+      <c r="L22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="O22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="P22" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="Q22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="R22" s="7" t="s">
+      <c r="R22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="S22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7" t="s">
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X22" s="7" t="s">
+      <c r="X22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7" t="s">
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC22" s="8" t="s">
+      <c r="AC22" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:29" s="3" customFormat="1">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K23" s="7" t="s">
+      <c r="J23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M23" s="7" t="s">
+      <c r="L23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="P23" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="Q23" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="R23" s="7" t="s">
+      <c r="R23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="S23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7" t="s">
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X23" s="7" t="s">
+      <c r="X23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7" t="s">
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC23" s="8" t="s">
+      <c r="AC23" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="3" customFormat="1">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>7173041730</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="7" t="s">
+      <c r="J24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" s="7" t="s">
+      <c r="L24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="O24" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="P24" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="Q24" s="7" t="s">
+      <c r="Q24" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="R24" s="7" t="s">
+      <c r="R24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S24" s="7" t="s">
+      <c r="S24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7" t="s">
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X24" s="7" t="s">
+      <c r="X24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7" t="s">
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC24" s="8" t="s">
+      <c r="AC24" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="3" customFormat="1">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K25" s="7" t="s">
+      <c r="J25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M25" s="7" t="s">
+      <c r="L25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="O25" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="P25" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="Q25" s="7" t="s">
+      <c r="Q25" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="R25" s="7" t="s">
+      <c r="R25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S25" s="7" t="s">
+      <c r="S25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7" t="s">
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X25" s="7" t="s">
+      <c r="X25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7" t="s">
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC25" s="8" t="s">
+      <c r="AC25" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:29">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>7173041731</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="J26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K26" s="7" t="s">
+      <c r="J26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M26" s="7" t="s">
+      <c r="L26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N26" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="P26" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="Q26" s="7" t="s">
+      <c r="Q26" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="R26" s="7" t="s">
+      <c r="R26" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S26" s="7" t="s">
+      <c r="S26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7" t="s">
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X26" s="7" t="s">
+      <c r="X26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7" t="s">
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC26" s="8" t="s">
+      <c r="AC26" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:29">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K27" s="7" t="s">
+      <c r="J27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="L27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M27" s="7" t="s">
+      <c r="L27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="O27" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="P27" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="Q27" s="7" t="s">
+      <c r="Q27" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="R27" s="7" t="s">
+      <c r="R27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S27" s="7" t="s">
+      <c r="S27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7" t="s">
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X27" s="7" t="s">
+      <c r="X27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7" t="s">
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC27" s="8" t="s">
+      <c r="AC27" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:29">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>7173041752</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K28" s="7" t="s">
+      <c r="J28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M28" s="7" t="s">
+      <c r="L28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="O28" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="P28" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="Q28" s="7" t="s">
+      <c r="Q28" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="R28" s="7" t="s">
+      <c r="R28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S28" s="7" t="s">
+      <c r="S28" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7" t="s">
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X28" s="7" t="s">
+      <c r="X28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7" t="s">
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC28" s="8" t="s">
+      <c r="AC28" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:29">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="7" t="s">
+      <c r="J29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" s="7" t="s">
+      <c r="L29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="O29" s="7" t="s">
+      <c r="O29" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="P29" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="Q29" s="7" t="s">
+      <c r="Q29" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="R29" s="7" t="s">
+      <c r="R29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S29" s="7" t="s">
+      <c r="S29" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7" t="s">
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X29" s="7" t="s">
+      <c r="X29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7" t="s">
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC29" s="8" t="s">
+      <c r="AC29" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:29">
-      <c r="A30" s="14">
+      <c r="A30" s="13">
         <v>71546334</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K30" s="7" t="s">
+      <c r="J30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M30" s="7" t="s">
+      <c r="L30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="N30" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="O30" s="7" t="s">
+      <c r="O30" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="P30" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC30" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="A31" s="13">
+        <v>7183609631</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="Q30" s="7" t="s">
+      <c r="F31" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="P31" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q31" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="R30" s="7" t="s">
+      <c r="R31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S30" s="7" t="s">
+      <c r="S31" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7" t="s">
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X30" s="7" t="s">
+      <c r="X31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7" t="s">
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC30" s="12" t="s">
+      <c r="AC31" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-    </row>
     <row r="32" spans="1:29">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-    </row>
-    <row r="33" spans="1:28">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-    </row>
-    <row r="34" spans="1:28">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-    </row>
-    <row r="35" spans="1:28">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-    </row>
-    <row r="36" spans="1:28">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-    </row>
-    <row r="37" spans="1:28">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-    </row>
-    <row r="38" spans="1:28">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-    </row>
-    <row r="39" spans="1:28">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-    </row>
-    <row r="40" spans="1:28">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-    </row>
-    <row r="41" spans="1:28">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-    </row>
-    <row r="42" spans="1:28">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
-    </row>
-    <row r="43" spans="1:28">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-    </row>
-    <row r="44" spans="1:28">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
-    </row>
-    <row r="45" spans="1:28">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
-    </row>
-    <row r="46" spans="1:28">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="1"/>
-    </row>
-    <row r="47" spans="1:28">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
-    </row>
-    <row r="48" spans="1:28">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
-    </row>
-    <row r="49" spans="1:28">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-    </row>
-    <row r="50" spans="1:28">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-    </row>
-    <row r="51" spans="1:28">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
-    </row>
-    <row r="52" spans="1:28">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-    </row>
-    <row r="53" spans="1:28">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
-      <c r="AB53" s="1"/>
-    </row>
-    <row r="54" spans="1:28">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-    </row>
-    <row r="55" spans="1:28">
+      <c r="A32" s="13">
+        <v>7186885131</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="P32" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC32" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" customFormat="1">
+      <c r="A33" s="13">
+        <v>71546335</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="13">
+        <v>346</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="P33" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC33" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34" s="13">
+        <v>7183609632</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="P34" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC34" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" s="13">
+        <v>7186885132</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="P35" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC35" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
+      <c r="A36" s="13">
+        <v>7183609633</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="P36" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC36" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
+      <c r="A37" s="13">
+        <v>7180334134</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="P37" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC37" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
+      <c r="A38" s="13">
+        <v>7177058635</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="P38" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC38" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
+      <c r="A39" s="13">
+        <v>7173783136</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="P39" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC39" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
+      <c r="A40" s="13">
+        <v>7170507637</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="P40" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X40" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC40" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
+      <c r="A41" s="13">
+        <v>7167232138</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="P41" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X41" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC41" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
+      <c r="A42" s="13">
+        <v>7163956639</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="P42" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S42" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC42" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
+      <c r="A43" s="13">
+        <v>7160681140</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="P43" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X43" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC43" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
+      <c r="A44" s="13">
+        <v>7157405641</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="P44" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S44" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC44" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
+      <c r="A45" s="13">
+        <v>7154130142</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="P45" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X45" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC45" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
+      <c r="A46" s="13">
+        <v>7150854643</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="P46" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S46" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X46" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC46" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
+      <c r="A47" s="13">
+        <v>7147579144</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="P47" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X47" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC47" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29">
+      <c r="A48" s="13">
+        <v>7144303645</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="P48" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S48" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X48" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC48" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29">
+      <c r="A49" s="13">
+        <v>7141028146</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="P49" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X49" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC49" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29">
+      <c r="A50" s="13">
+        <v>7137752647</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="P50" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S50" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X50" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC50" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29">
+      <c r="A51" s="13">
+        <v>7134477148</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="P51" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X51" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC51" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29">
+      <c r="A52" s="13">
+        <v>7131201649</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="P52" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S52" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X52" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC52" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29">
+      <c r="A53" s="13">
+        <v>7127926150</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="P53" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X53" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC53" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29">
+      <c r="A54" s="13">
+        <v>7124650651</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="P54" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S54" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X54" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC54" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4080,7 +5699,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
+      <c r="P55" s="17"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
@@ -4094,7 +5713,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:29">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4110,7 +5729,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
+      <c r="P56" s="23"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
@@ -4124,7 +5743,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:29">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4140,7 +5759,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
+      <c r="P57" s="23"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -4154,7 +5773,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:29">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4170,7 +5789,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
+      <c r="P58" s="23"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
@@ -4184,7 +5803,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:29">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4200,7 +5819,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
+      <c r="P59" s="23"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
@@ -4214,7 +5833,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:29">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4230,7 +5849,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
+      <c r="P60" s="23"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
@@ -4244,7 +5863,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:29">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4260,7 +5879,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
+      <c r="P61" s="23"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
@@ -4274,7 +5893,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:29">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4290,7 +5909,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
+      <c r="P62" s="23"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
@@ -4304,7 +5923,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:29">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4320,7 +5939,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
+      <c r="P63" s="23"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -4334,7 +5953,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:29">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4350,7 +5969,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
+      <c r="P64" s="23"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -4380,7 +5999,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
+      <c r="P65" s="23"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -4410,7 +6029,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
+      <c r="P66" s="23"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -4440,7 +6059,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
+      <c r="P67" s="23"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
@@ -4470,7 +6089,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
+      <c r="P68" s="23"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>

--- a/excel/import penawaran.xlsx
+++ b/excel/import penawaran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8D45F8-AFC8-A942-B5B6-97C274CD4AF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A378BC8-A935-6A44-84A9-261DD5ECFBB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" xr2:uid="{B264C883-C65C-404D-AD50-16A2D4E1BD84}"/>
   </bookViews>
@@ -531,9 +531,6 @@
     <t>190</t>
   </si>
   <si>
-    <t>0.23364</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -979,6 +976,9 @@
   </si>
   <si>
     <t>HZY</t>
+  </si>
+  <si>
+    <t>0.2397</t>
   </si>
 </sst>
 </file>
@@ -1498,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D0551A-2F20-8F4C-8743-DC3D731B472A}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3035,7 +3035,7 @@
         <v>120</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>47</v>
@@ -3784,13 +3784,13 @@
         <v>167</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>168</v>
+        <v>317</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>34</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>168</v>
+        <v>317</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>34</v>
@@ -3814,7 +3814,7 @@
         <v>57</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
@@ -3849,16 +3849,16 @@
         <v>30</v>
       </c>
       <c r="E31" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>136</v>
@@ -3867,7 +3867,7 @@
         <v>34</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>34</v>
@@ -3879,7 +3879,7 @@
         <v>110</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P31" s="18" t="s">
         <v>112</v>
@@ -3891,7 +3891,7 @@
         <v>57</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
@@ -3926,16 +3926,16 @@
         <v>30</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>140</v>
@@ -3944,7 +3944,7 @@
         <v>34</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>34</v>
@@ -3956,7 +3956,7 @@
         <v>119</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P32" s="19" t="s">
         <v>112</v>
@@ -3968,7 +3968,7 @@
         <v>57</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
@@ -4003,10 +4003,10 @@
         <v>30</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>33</v>
@@ -4021,7 +4021,7 @@
         <v>34</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>34</v>
@@ -4030,10 +4030,10 @@
         <v>46</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P33" s="20" t="s">
         <v>112</v>
@@ -4045,7 +4045,7 @@
         <v>57</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
@@ -4063,7 +4063,7 @@
         <v>38</v>
       </c>
       <c r="AC33" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -4080,16 +4080,16 @@
         <v>30</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>145</v>
@@ -4098,7 +4098,7 @@
         <v>34</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>34</v>
@@ -4107,13 +4107,13 @@
         <v>46</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P34" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>113</v>
@@ -4122,7 +4122,7 @@
         <v>57</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
@@ -4140,7 +4140,7 @@
         <v>38</v>
       </c>
       <c r="AC34" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -4157,10 +4157,10 @@
         <v>30</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>33</v>
@@ -4175,7 +4175,7 @@
         <v>34</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>34</v>
@@ -4187,7 +4187,7 @@
         <v>157</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P35" s="18" t="s">
         <v>147</v>
@@ -4199,7 +4199,7 @@
         <v>57</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
@@ -4217,7 +4217,7 @@
         <v>38</v>
       </c>
       <c r="AC35" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -4234,10 +4234,10 @@
         <v>30</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>33</v>
@@ -4252,7 +4252,7 @@
         <v>34</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>34</v>
@@ -4264,10 +4264,10 @@
         <v>157</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>113</v>
@@ -4276,7 +4276,7 @@
         <v>57</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
@@ -4294,7 +4294,7 @@
         <v>38</v>
       </c>
       <c r="AC36" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4311,16 +4311,16 @@
         <v>30</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>67</v>
@@ -4329,7 +4329,7 @@
         <v>34</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>34</v>
@@ -4338,13 +4338,13 @@
         <v>46</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P37" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q37" s="6" t="s">
         <v>113</v>
@@ -4353,7 +4353,7 @@
         <v>57</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
@@ -4388,16 +4388,16 @@
         <v>30</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>72</v>
@@ -4406,7 +4406,7 @@
         <v>34</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>34</v>
@@ -4418,10 +4418,10 @@
         <v>157</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P38" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>113</v>
@@ -4430,7 +4430,7 @@
         <v>57</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
@@ -4465,16 +4465,16 @@
         <v>30</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>75</v>
@@ -4483,7 +4483,7 @@
         <v>34</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>34</v>
@@ -4495,10 +4495,10 @@
         <v>157</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P39" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>113</v>
@@ -4507,7 +4507,7 @@
         <v>57</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
@@ -4542,16 +4542,16 @@
         <v>30</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>79</v>
@@ -4560,7 +4560,7 @@
         <v>34</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>34</v>
@@ -4569,13 +4569,13 @@
         <v>46</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P40" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>113</v>
@@ -4584,7 +4584,7 @@
         <v>57</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
@@ -4619,16 +4619,16 @@
         <v>30</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>67</v>
@@ -4637,7 +4637,7 @@
         <v>34</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>34</v>
@@ -4649,10 +4649,10 @@
         <v>157</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P41" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>113</v>
@@ -4661,7 +4661,7 @@
         <v>57</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
@@ -4696,16 +4696,16 @@
         <v>30</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>84</v>
@@ -4714,7 +4714,7 @@
         <v>34</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>34</v>
@@ -4726,10 +4726,10 @@
         <v>157</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P42" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q42" s="6" t="s">
         <v>113</v>
@@ -4738,7 +4738,7 @@
         <v>57</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
@@ -4773,16 +4773,16 @@
         <v>30</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>87</v>
@@ -4791,7 +4791,7 @@
         <v>34</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>34</v>
@@ -4800,13 +4800,13 @@
         <v>46</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P43" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q43" s="6" t="s">
         <v>113</v>
@@ -4815,7 +4815,7 @@
         <v>57</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
@@ -4850,16 +4850,16 @@
         <v>30</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>89</v>
@@ -4868,7 +4868,7 @@
         <v>34</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L44" s="6" t="s">
         <v>34</v>
@@ -4877,13 +4877,13 @@
         <v>46</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P44" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q44" s="6" t="s">
         <v>113</v>
@@ -4892,7 +4892,7 @@
         <v>57</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
@@ -4927,16 +4927,16 @@
         <v>30</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>95</v>
@@ -4945,7 +4945,7 @@
         <v>34</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L45" s="6" t="s">
         <v>34</v>
@@ -4957,10 +4957,10 @@
         <v>157</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P45" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q45" s="6" t="s">
         <v>113</v>
@@ -4969,7 +4969,7 @@
         <v>43</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
@@ -5004,16 +5004,16 @@
         <v>30</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>100</v>
@@ -5022,7 +5022,7 @@
         <v>34</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L46" s="6" t="s">
         <v>34</v>
@@ -5031,13 +5031,13 @@
         <v>46</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P46" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q46" s="6" t="s">
         <v>113</v>
@@ -5046,7 +5046,7 @@
         <v>43</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
@@ -5064,7 +5064,7 @@
         <v>38</v>
       </c>
       <c r="AC46" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5081,16 +5081,16 @@
         <v>30</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>104</v>
@@ -5099,7 +5099,7 @@
         <v>34</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>34</v>
@@ -5108,10 +5108,10 @@
         <v>46</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P47" s="18" t="s">
         <v>51</v>
@@ -5123,7 +5123,7 @@
         <v>43</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
@@ -5141,7 +5141,7 @@
         <v>38</v>
       </c>
       <c r="AC47" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5158,25 +5158,25 @@
         <v>30</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J48" s="6" t="s">
         <v>34</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L48" s="6" t="s">
         <v>34</v>
@@ -5185,13 +5185,13 @@
         <v>46</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P48" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>113</v>
@@ -5200,7 +5200,7 @@
         <v>43</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
@@ -5218,7 +5218,7 @@
         <v>38</v>
       </c>
       <c r="AC48" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5235,25 +5235,25 @@
         <v>30</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J49" s="6" t="s">
         <v>34</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L49" s="6" t="s">
         <v>34</v>
@@ -5262,10 +5262,10 @@
         <v>46</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P49" s="18" t="s">
         <v>41</v>
@@ -5277,7 +5277,7 @@
         <v>57</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>
@@ -5295,7 +5295,7 @@
         <v>38</v>
       </c>
       <c r="AC49" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5312,25 +5312,25 @@
         <v>30</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J50" s="6" t="s">
         <v>34</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>34</v>
@@ -5339,10 +5339,10 @@
         <v>46</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P50" s="18" t="s">
         <v>121</v>
@@ -5354,7 +5354,7 @@
         <v>43</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
@@ -5372,7 +5372,7 @@
         <v>38</v>
       </c>
       <c r="AC50" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5389,25 +5389,25 @@
         <v>30</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J51" s="6" t="s">
         <v>34</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L51" s="6" t="s">
         <v>34</v>
@@ -5416,13 +5416,13 @@
         <v>46</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P51" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q51" s="6" t="s">
         <v>113</v>
@@ -5431,7 +5431,7 @@
         <v>43</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
@@ -5449,7 +5449,7 @@
         <v>38</v>
       </c>
       <c r="AC51" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5466,25 +5466,25 @@
         <v>30</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J52" s="6" t="s">
         <v>34</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L52" s="6" t="s">
         <v>34</v>
@@ -5493,10 +5493,10 @@
         <v>46</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P52" s="18" t="s">
         <v>70</v>
@@ -5508,7 +5508,7 @@
         <v>43</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
@@ -5526,7 +5526,7 @@
         <v>38</v>
       </c>
       <c r="AC52" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5543,25 +5543,25 @@
         <v>30</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J53" s="6" t="s">
         <v>34</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L53" s="6" t="s">
         <v>34</v>
@@ -5570,10 +5570,10 @@
         <v>46</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P53" s="18" t="s">
         <v>148</v>
@@ -5585,7 +5585,7 @@
         <v>43</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
@@ -5603,7 +5603,7 @@
         <v>38</v>
       </c>
       <c r="AC53" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5620,25 +5620,25 @@
         <v>30</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J54" s="6" t="s">
         <v>34</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L54" s="6" t="s">
         <v>34</v>
@@ -5647,13 +5647,13 @@
         <v>46</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P54" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q54" s="6" t="s">
         <v>113</v>
@@ -5662,7 +5662,7 @@
         <v>43</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
@@ -5680,7 +5680,7 @@
         <v>38</v>
       </c>
       <c r="AC54" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" spans="1:29">

--- a/excel/import penawaran.xlsx
+++ b/excel/import penawaran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A378BC8-A935-6A44-84A9-261DD5ECFBB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B807EE-DED8-2940-AC7E-6DD71CE02DB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" xr2:uid="{B264C883-C65C-404D-AD50-16A2D4E1BD84}"/>
   </bookViews>
@@ -711,9 +711,6 @@
     <t>0.23366</t>
   </si>
   <si>
-    <t>0.23367</t>
-  </si>
-  <si>
     <t>0.23368</t>
   </si>
   <si>
@@ -979,6 +976,9 @@
   </si>
   <si>
     <t>0.2397</t>
+  </si>
+  <si>
+    <t>0.0693</t>
   </si>
 </sst>
 </file>
@@ -1498,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D0551A-2F20-8F4C-8743-DC3D731B472A}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3784,13 +3784,13 @@
         <v>167</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>34</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>34</v>
@@ -3879,7 +3879,7 @@
         <v>110</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P31" s="18" t="s">
         <v>112</v>
@@ -3935,7 +3935,7 @@
         <v>33</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>140</v>
@@ -3956,7 +3956,7 @@
         <v>119</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P32" s="19" t="s">
         <v>112</v>
@@ -4021,7 +4021,7 @@
         <v>34</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>228</v>
+        <v>317</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>34</v>
@@ -4030,10 +4030,10 @@
         <v>46</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P33" s="20" t="s">
         <v>112</v>
@@ -4063,7 +4063,7 @@
         <v>38</v>
       </c>
       <c r="AC33" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -4089,7 +4089,7 @@
         <v>33</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>145</v>
@@ -4098,7 +4098,7 @@
         <v>34</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>34</v>
@@ -4107,13 +4107,13 @@
         <v>46</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P34" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>113</v>
@@ -4140,7 +4140,7 @@
         <v>38</v>
       </c>
       <c r="AC34" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -4175,7 +4175,7 @@
         <v>34</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>34</v>
@@ -4187,7 +4187,7 @@
         <v>157</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P35" s="18" t="s">
         <v>147</v>
@@ -4217,7 +4217,7 @@
         <v>38</v>
       </c>
       <c r="AC35" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -4252,7 +4252,7 @@
         <v>34</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>34</v>
@@ -4264,10 +4264,10 @@
         <v>157</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>113</v>
@@ -4294,7 +4294,7 @@
         <v>38</v>
       </c>
       <c r="AC36" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4320,7 +4320,7 @@
         <v>33</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>67</v>
@@ -4329,7 +4329,7 @@
         <v>34</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>34</v>
@@ -4338,13 +4338,13 @@
         <v>46</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P37" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q37" s="6" t="s">
         <v>113</v>
@@ -4397,7 +4397,7 @@
         <v>33</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>72</v>
@@ -4406,7 +4406,7 @@
         <v>34</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>34</v>
@@ -4418,10 +4418,10 @@
         <v>157</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P38" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>113</v>
@@ -4474,7 +4474,7 @@
         <v>33</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>75</v>
@@ -4483,7 +4483,7 @@
         <v>34</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>34</v>
@@ -4495,10 +4495,10 @@
         <v>157</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P39" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>113</v>
@@ -4551,7 +4551,7 @@
         <v>33</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>79</v>
@@ -4560,7 +4560,7 @@
         <v>34</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>34</v>
@@ -4569,13 +4569,13 @@
         <v>46</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P40" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>113</v>
@@ -4628,7 +4628,7 @@
         <v>33</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>67</v>
@@ -4637,7 +4637,7 @@
         <v>34</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>34</v>
@@ -4649,10 +4649,10 @@
         <v>157</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P41" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>113</v>
@@ -4705,7 +4705,7 @@
         <v>33</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>84</v>
@@ -4714,7 +4714,7 @@
         <v>34</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>34</v>
@@ -4726,10 +4726,10 @@
         <v>157</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P42" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q42" s="6" t="s">
         <v>113</v>
@@ -4782,7 +4782,7 @@
         <v>33</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>87</v>
@@ -4791,7 +4791,7 @@
         <v>34</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>34</v>
@@ -4800,13 +4800,13 @@
         <v>46</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P43" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q43" s="6" t="s">
         <v>113</v>
@@ -4859,7 +4859,7 @@
         <v>33</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>89</v>
@@ -4868,7 +4868,7 @@
         <v>34</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L44" s="6" t="s">
         <v>34</v>
@@ -4877,13 +4877,13 @@
         <v>46</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P44" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q44" s="6" t="s">
         <v>113</v>
@@ -4936,7 +4936,7 @@
         <v>33</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>95</v>
@@ -4945,7 +4945,7 @@
         <v>34</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L45" s="6" t="s">
         <v>34</v>
@@ -4957,10 +4957,10 @@
         <v>157</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P45" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q45" s="6" t="s">
         <v>113</v>
@@ -5013,7 +5013,7 @@
         <v>33</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>100</v>
@@ -5022,7 +5022,7 @@
         <v>34</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L46" s="6" t="s">
         <v>34</v>
@@ -5031,13 +5031,13 @@
         <v>46</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P46" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q46" s="6" t="s">
         <v>113</v>
@@ -5064,7 +5064,7 @@
         <v>38</v>
       </c>
       <c r="AC46" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5090,7 +5090,7 @@
         <v>33</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>104</v>
@@ -5099,7 +5099,7 @@
         <v>34</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>34</v>
@@ -5108,10 +5108,10 @@
         <v>46</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P47" s="18" t="s">
         <v>51</v>
@@ -5141,7 +5141,7 @@
         <v>38</v>
       </c>
       <c r="AC47" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>33</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>219</v>
@@ -5176,7 +5176,7 @@
         <v>34</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L48" s="6" t="s">
         <v>34</v>
@@ -5185,13 +5185,13 @@
         <v>46</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P48" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>113</v>
@@ -5218,7 +5218,7 @@
         <v>38</v>
       </c>
       <c r="AC48" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>33</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>220</v>
@@ -5253,7 +5253,7 @@
         <v>34</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L49" s="6" t="s">
         <v>34</v>
@@ -5262,10 +5262,10 @@
         <v>46</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P49" s="18" t="s">
         <v>41</v>
@@ -5295,7 +5295,7 @@
         <v>38</v>
       </c>
       <c r="AC49" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>33</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>221</v>
@@ -5330,7 +5330,7 @@
         <v>34</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>34</v>
@@ -5339,10 +5339,10 @@
         <v>46</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P50" s="18" t="s">
         <v>121</v>
@@ -5372,7 +5372,7 @@
         <v>38</v>
       </c>
       <c r="AC50" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5398,7 +5398,7 @@
         <v>33</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>222</v>
@@ -5407,7 +5407,7 @@
         <v>34</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L51" s="6" t="s">
         <v>34</v>
@@ -5416,13 +5416,13 @@
         <v>46</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P51" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q51" s="6" t="s">
         <v>113</v>
@@ -5449,7 +5449,7 @@
         <v>38</v>
       </c>
       <c r="AC51" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5475,7 +5475,7 @@
         <v>33</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>223</v>
@@ -5484,7 +5484,7 @@
         <v>34</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L52" s="6" t="s">
         <v>34</v>
@@ -5493,10 +5493,10 @@
         <v>46</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P52" s="18" t="s">
         <v>70</v>
@@ -5526,7 +5526,7 @@
         <v>38</v>
       </c>
       <c r="AC52" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5552,7 +5552,7 @@
         <v>33</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>224</v>
@@ -5561,7 +5561,7 @@
         <v>34</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L53" s="6" t="s">
         <v>34</v>
@@ -5570,10 +5570,10 @@
         <v>46</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P53" s="18" t="s">
         <v>148</v>
@@ -5603,7 +5603,7 @@
         <v>38</v>
       </c>
       <c r="AC53" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5629,7 +5629,7 @@
         <v>33</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>225</v>
@@ -5638,7 +5638,7 @@
         <v>34</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L54" s="6" t="s">
         <v>34</v>
@@ -5647,13 +5647,13 @@
         <v>46</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P54" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q54" s="6" t="s">
         <v>113</v>
@@ -5680,7 +5680,7 @@
         <v>38</v>
       </c>
       <c r="AC54" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:29">

--- a/excel/import penawaran.xlsx
+++ b/excel/import penawaran.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/fa_sai/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B807EE-DED8-2940-AC7E-6DD71CE02DB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4575F92A-A225-2F4F-8930-38F5FBFD4F30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" xr2:uid="{B264C883-C65C-404D-AD50-16A2D4E1BD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -6106,4 +6108,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B298AF-C7EC-1247-98DA-BD0627F64CBA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE3D254-F5AC-524F-A888-6E404C31675C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>